--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="ACT-01" sheetId="38" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="129">
   <si>
     <t>STT</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Còn BH</t>
   </si>
   <si>
-    <t>Cty Tiến Phát</t>
-  </si>
-  <si>
     <t>TG007X</t>
   </si>
   <si>
@@ -379,6 +376,63 @@
   </si>
   <si>
     <t>Thay module GPS</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi bộ nhớ</t>
+  </si>
+  <si>
+    <t>Thay bộ nhớ</t>
+  </si>
+  <si>
+    <t>Chập nguồn module GPS,MCU</t>
+  </si>
+  <si>
+    <t>Thay IC nguồn 3v3(x2), MCU,module GPS</t>
+  </si>
+  <si>
+    <t>NG,MCU,GPS</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---16.051017 </t>
+  </si>
+  <si>
+    <t>203.162.121.026,09007</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Thay thạch anh, tụ lọc nguồn</t>
+  </si>
+  <si>
+    <t>NG,LK</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn, không cấu hình</t>
+  </si>
+  <si>
+    <t>Thay, diode quá áp, IC giao tiếp, nạp lại FW, cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>NG,MCH</t>
+  </si>
+  <si>
+    <t>203.162.121.024,09004</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Thiết bị xuất bán Cty Tiến Phát</t>
+  </si>
+  <si>
+    <t>Không nhận BH</t>
   </si>
 </sst>
 </file>
@@ -799,7 +853,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,21 +890,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1144,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1177,43 +1231,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -1258,58 +1312,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1334,23 +1388,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1372,21 +1426,29 @@
         <v>69</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="I6" s="50"/>
       <c r="J6" s="1"/>
       <c r="K6" s="60"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1417,7 +1479,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1446,7 +1508,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1475,7 +1537,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1504,7 +1566,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1533,7 +1595,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1562,7 +1624,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1593,7 +1655,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1622,7 +1684,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1651,7 +1713,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1680,7 +1742,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1831,7 +1893,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2140,7 +2202,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2332,7 +2394,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2911,13 +2973,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2929,6 +2984,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2939,8 +3001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2972,43 +3034,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -3053,58 +3115,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3129,23 +3191,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3157,7 +3219,7 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="39">
         <v>868183034787049</v>
@@ -3168,34 +3230,34 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K6" s="60" t="s">
         <v>65</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N6" s="51">
         <v>12000</v>
       </c>
       <c r="O6" s="40"/>
       <c r="P6" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" s="38" t="s">
         <v>84</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>85</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3212,7 +3274,7 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="39">
         <v>868183038045303</v>
@@ -3223,24 +3285,24 @@
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" s="59" t="s">
         <v>66</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P7" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>18</v>
@@ -3250,7 +3312,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3265,7 +3327,7 @@
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="39">
         <v>868183038046244</v>
@@ -3276,24 +3338,24 @@
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="59" t="s">
         <v>66</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N8" s="41"/>
       <c r="O8" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>18</v>
@@ -3303,7 +3365,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3318,7 +3380,7 @@
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="39">
         <v>868183038475781</v>
@@ -3329,24 +3391,24 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>66</v>
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N9" s="41"/>
       <c r="O9" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P9" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>18</v>
@@ -3356,7 +3418,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3371,7 +3433,7 @@
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="39">
         <v>868183038046608</v>
@@ -3382,24 +3444,24 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="40" t="s">
         <v>76</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>77</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>18</v>
@@ -3409,7 +3471,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3424,7 +3486,7 @@
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="39">
         <v>868183038090390</v>
@@ -3435,24 +3497,24 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>18</v>
@@ -3462,7 +3524,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3477,7 +3539,7 @@
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="39">
         <v>868183038523135</v>
@@ -3488,22 +3550,22 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="40" t="s">
         <v>91</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>92</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N12" s="51"/>
       <c r="O12" s="40"/>
       <c r="P12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>18</v>
@@ -3513,7 +3575,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3530,7 +3592,7 @@
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="39">
         <v>868183038044819</v>
@@ -3540,27 +3602,27 @@
         <v>69</v>
       </c>
       <c r="H13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="J13" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>18</v>
@@ -3570,7 +3632,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3585,7 +3647,7 @@
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="39">
         <v>867857039912956</v>
@@ -3596,24 +3658,24 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L14" s="40"/>
       <c r="M14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N14" s="51">
         <v>12000</v>
       </c>
       <c r="O14" s="40"/>
       <c r="P14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>18</v>
@@ -3623,7 +3685,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3638,7 +3700,7 @@
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="39">
         <v>868183034751862</v>
@@ -3649,24 +3711,24 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="40" t="s">
-        <v>92</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L15" s="40"/>
       <c r="M15" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N15" s="51">
         <v>250000</v>
       </c>
       <c r="O15" s="40"/>
       <c r="P15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>18</v>
@@ -3676,7 +3738,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3691,7 +3753,7 @@
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="39">
         <v>868183034664677</v>
@@ -3702,22 +3764,24 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
+      <c r="O16" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>19</v>
@@ -3727,7 +3791,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3742,7 +3806,7 @@
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="39">
         <v>868183034752076</v>
@@ -3753,24 +3817,24 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" s="51">
         <v>12000</v>
       </c>
       <c r="O17" s="40"/>
       <c r="P17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>18</v>
@@ -3793,7 +3857,7 @@
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="39">
         <v>868183034600986</v>
@@ -3803,25 +3867,27 @@
         <v>64</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="I18" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
+      <c r="O18" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>18</v>
@@ -3844,7 +3910,7 @@
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="39">
         <v>860157040235514</v>
@@ -3855,22 +3921,24 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
+      <c r="O19" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>19</v>
@@ -3897,7 +3965,7 @@
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="39">
         <v>868183034608229</v>
@@ -3908,30 +3976,30 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="K20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N20" s="51">
         <v>12000</v>
       </c>
       <c r="O20" s="40"/>
       <c r="P20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R20" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="R20" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="S20" s="4"/>
       <c r="T20" s="14"/>
@@ -5052,13 +5120,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5070,6 +5131,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5080,8 +5148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showZeros="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5113,43 +5181,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -5194,58 +5262,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5270,23 +5338,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5298,7 +5366,7 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="39">
         <v>864811036990062</v>
@@ -5309,24 +5377,24 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N6" s="41">
         <v>385000</v>
       </c>
       <c r="O6" s="40"/>
       <c r="P6" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>18</v>
@@ -5336,7 +5404,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5353,29 +5421,43 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="39">
         <v>868345035586627</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="60"/>
+      <c r="J7" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>110</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
+      <c r="M7" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="41">
+        <v>138000</v>
+      </c>
       <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5404,7 +5486,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5433,7 +5515,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5462,7 +5544,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5491,7 +5573,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5520,7 +5602,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5551,7 +5633,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5580,7 +5662,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5609,7 +5691,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5638,7 +5720,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5789,7 +5871,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -6098,7 +6180,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6290,7 +6372,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6869,13 +6951,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6887,6 +6962,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6897,8 +6979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6930,43 +7012,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -7011,58 +7093,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -7087,23 +7169,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7115,7 +7197,7 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="39">
         <v>865209034372103</v>
@@ -7126,18 +7208,30 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="K6" s="60"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
+      <c r="M6" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="41">
+        <v>625000</v>
+      </c>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>115</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7168,7 +7262,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7197,7 +7291,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7226,7 +7320,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7255,7 +7349,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7284,7 +7378,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7313,7 +7407,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7344,7 +7438,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7373,7 +7467,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7402,7 +7496,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7431,7 +7525,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7582,7 +7676,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7731,7 +7825,7 @@
       </c>
       <c r="V26" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="14"/>
     </row>
@@ -7795,7 +7889,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -7827,7 +7921,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -8083,7 +8177,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8662,13 +8756,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8680,6 +8767,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8690,8 +8784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" topLeftCell="J4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8723,43 +8817,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -8804,58 +8898,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -8880,23 +8974,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8908,7 +9002,7 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="39">
         <v>869668021839844</v>
@@ -8918,19 +9012,35 @@
         <v>64</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="60"/>
+      <c r="I6" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>117</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>120</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>121</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8961,7 +9071,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8990,7 +9100,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9019,7 +9129,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9048,7 +9158,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9077,7 +9187,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9106,7 +9216,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9137,7 +9247,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9166,7 +9276,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9195,7 +9305,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9224,7 +9334,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9375,7 +9485,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -9620,7 +9730,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -9684,7 +9794,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -9876,7 +9986,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -10455,13 +10565,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10473,6 +10576,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10483,8 +10593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10516,43 +10626,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -10597,58 +10707,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -10673,23 +10783,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="71" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10701,7 +10811,7 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="39">
         <v>862118021515306</v>
@@ -10712,18 +10822,32 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="K6" s="60"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
+      <c r="L6" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="41">
+        <v>50000</v>
+      </c>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>124</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10740,7 +10864,7 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="39">
         <v>865904020083850</v>
@@ -10750,19 +10874,33 @@
         <v>64</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
+      <c r="I7" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>116</v>
+      </c>
       <c r="K7" s="60"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>126</v>
+      </c>
       <c r="N7" s="41"/>
       <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10791,7 +10929,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10820,7 +10958,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10849,7 +10987,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10878,7 +11016,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10907,7 +11045,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10938,7 +11076,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10967,7 +11105,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10996,7 +11134,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11025,7 +11163,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11144,7 +11282,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -11208,7 +11346,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -11421,7 +11559,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -11517,7 +11655,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -11677,7 +11815,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -12256,13 +12394,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12274,6 +12405,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12317,43 +12455,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -12398,58 +12536,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -12474,23 +12612,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12516,7 +12654,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12547,7 +12685,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12576,7 +12714,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12605,7 +12743,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12634,7 +12772,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12663,7 +12801,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12692,7 +12830,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -12723,7 +12861,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12752,7 +12890,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12781,7 +12919,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12810,7 +12948,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14041,13 +14179,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14059,6 +14190,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_TechGlobal.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="130">
   <si>
     <t>STT</t>
   </si>
@@ -375,22 +375,13 @@
     <t>Lock: 203.162.121.016,01102</t>
   </si>
   <si>
-    <t>Thay module GPS</t>
-  </si>
-  <si>
     <t>W.2.00.---21.200630</t>
   </si>
   <si>
     <t>Thiết bị lỗi bộ nhớ</t>
   </si>
   <si>
-    <t>Thay bộ nhớ</t>
-  </si>
-  <si>
     <t>Chập nguồn module GPS,MCU</t>
-  </si>
-  <si>
-    <t>Thay IC nguồn 3v3(x2), MCU,module GPS</t>
   </si>
   <si>
     <t>NG,MCU,GPS</t>
@@ -417,9 +408,6 @@
     <t>Thiết bị chập nguồn, không cấu hình</t>
   </si>
   <si>
-    <t>Thay, diode quá áp, IC giao tiếp, nạp lại FW, cấu hình lại thiết bị</t>
-  </si>
-  <si>
     <t>NG,MCH</t>
   </si>
   <si>
@@ -429,10 +417,25 @@
     <t>Nạp lại FW</t>
   </si>
   <si>
-    <t>Thiết bị xuất bán Cty Tiến Phát</t>
+    <t>Báo giá không sửa</t>
   </si>
   <si>
-    <t>Không nhận BH</t>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Báo giá khách không sửa</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp, IC giao tiếp, nạp lại FW, cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183033791018</t>
+  </si>
+  <si>
+    <t>Xử lý dây kết nối</t>
+  </si>
+  <si>
+    <t>Dây kết nối bị đứt</t>
   </si>
 </sst>
 </file>
@@ -853,22 +856,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -890,6 +878,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1198,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1231,43 +1234,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -1312,58 +1315,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -1388,23 +1391,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1414,7 +1417,9 @@
       <c r="B6" s="37">
         <v>44383</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44391</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>57</v>
       </c>
@@ -1425,18 +1430,20 @@
       <c r="G6" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="38" t="s">
-        <v>127</v>
-      </c>
+      <c r="H6" s="38"/>
       <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="K6" s="60"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
         <v>128</v>
       </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>78</v>
       </c>
@@ -1448,7 +1455,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1479,7 +1486,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1508,7 +1515,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1537,7 +1544,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1566,7 +1573,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1595,7 +1602,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1624,7 +1631,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1655,7 +1662,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1684,7 +1691,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1713,7 +1720,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1742,7 +1749,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2973,6 +2980,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2984,13 +2998,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3002,7 +3009,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3034,43 +3041,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -3115,58 +3122,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -3191,23 +3198,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3217,7 +3224,9 @@
       <c r="B6" s="37">
         <v>44383</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44391</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>70</v>
       </c>
@@ -3245,7 +3254,9 @@
       <c r="N6" s="51">
         <v>12000</v>
       </c>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>78</v>
       </c>
@@ -3257,7 +3268,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3272,7 +3283,9 @@
       <c r="B7" s="37">
         <v>44383</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44391</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>70</v>
       </c>
@@ -3290,7 +3303,7 @@
       <c r="J7" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="60" t="s">
         <v>66</v>
       </c>
       <c r="L7" s="40"/>
@@ -3312,7 +3325,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3325,7 +3338,9 @@
       <c r="B8" s="37">
         <v>44383</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44391</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>70</v>
       </c>
@@ -3343,7 +3358,7 @@
       <c r="J8" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="60" t="s">
         <v>66</v>
       </c>
       <c r="L8" s="40"/>
@@ -3365,7 +3380,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3378,7 +3393,9 @@
       <c r="B9" s="37">
         <v>44383</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44391</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>70</v>
       </c>
@@ -3418,7 +3435,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3431,7 +3448,9 @@
       <c r="B10" s="37">
         <v>44383</v>
       </c>
-      <c r="C10" s="64"/>
+      <c r="C10" s="37">
+        <v>44391</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>70</v>
       </c>
@@ -3471,7 +3490,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3484,7 +3503,9 @@
       <c r="B11" s="37">
         <v>44383</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="37">
+        <v>44391</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>70</v>
       </c>
@@ -3524,7 +3545,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3537,7 +3558,9 @@
       <c r="B12" s="37">
         <v>44383</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="37">
+        <v>44391</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>70</v>
       </c>
@@ -3548,7 +3571,9 @@
       <c r="G12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="I12" s="55" t="s">
         <v>90</v>
       </c>
@@ -3563,7 +3588,9 @@
         <v>92</v>
       </c>
       <c r="N12" s="51"/>
-      <c r="O12" s="40"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P12" s="1" t="s">
         <v>78</v>
       </c>
@@ -3575,7 +3602,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3590,7 +3617,9 @@
       <c r="B13" s="37">
         <v>44383</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="37">
+        <v>44391</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>70</v>
       </c>
@@ -3632,7 +3661,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3645,7 +3674,9 @@
       <c r="B14" s="37">
         <v>44383</v>
       </c>
-      <c r="C14" s="64"/>
+      <c r="C14" s="37">
+        <v>44391</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>70</v>
       </c>
@@ -3673,7 +3704,9 @@
       <c r="N14" s="51">
         <v>12000</v>
       </c>
-      <c r="O14" s="40"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P14" s="1" t="s">
         <v>78</v>
       </c>
@@ -3685,7 +3718,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3698,7 +3731,9 @@
       <c r="B15" s="37">
         <v>44383</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="37">
+        <v>44391</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>70</v>
       </c>
@@ -3721,12 +3756,12 @@
       </c>
       <c r="L15" s="40"/>
       <c r="M15" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="N15" s="51">
-        <v>250000</v>
-      </c>
-      <c r="O15" s="40"/>
+        <v>123</v>
+      </c>
+      <c r="N15" s="51"/>
+      <c r="O15" s="40" t="s">
+        <v>124</v>
+      </c>
       <c r="P15" s="1" t="s">
         <v>78</v>
       </c>
@@ -3738,7 +3773,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3751,7 +3786,9 @@
       <c r="B16" s="37">
         <v>44383</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="37">
+        <v>44391</v>
+      </c>
       <c r="D16" s="38" t="s">
         <v>70</v>
       </c>
@@ -3791,7 +3828,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3804,7 +3841,9 @@
       <c r="B17" s="37">
         <v>44383</v>
       </c>
-      <c r="C17" s="64"/>
+      <c r="C17" s="37">
+        <v>44391</v>
+      </c>
       <c r="D17" s="38" t="s">
         <v>70</v>
       </c>
@@ -3832,7 +3871,9 @@
       <c r="N17" s="51">
         <v>12000</v>
       </c>
-      <c r="O17" s="40"/>
+      <c r="O17" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P17" s="1" t="s">
         <v>78</v>
       </c>
@@ -3855,7 +3896,9 @@
       <c r="B18" s="37">
         <v>44383</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="37">
+        <v>44391</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>70</v>
       </c>
@@ -3908,7 +3951,9 @@
       <c r="B19" s="37">
         <v>44383</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="37">
+        <v>44391</v>
+      </c>
       <c r="D19" s="38" t="s">
         <v>70</v>
       </c>
@@ -3963,7 +4008,9 @@
       <c r="B20" s="37">
         <v>44383</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="37">
+        <v>44391</v>
+      </c>
       <c r="D20" s="38" t="s">
         <v>70</v>
       </c>
@@ -3991,7 +4038,9 @@
       <c r="N20" s="51">
         <v>12000</v>
       </c>
-      <c r="O20" s="40"/>
+      <c r="O20" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P20" s="1" t="s">
         <v>78</v>
       </c>
@@ -4659,7 +4708,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -5120,6 +5169,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5131,13 +5187,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5148,8 +5197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5181,43 +5230,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -5262,58 +5311,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5338,23 +5387,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5364,7 +5413,9 @@
       <c r="B6" s="37">
         <v>44383</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44391</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>71</v>
       </c>
@@ -5387,12 +5438,12 @@
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" s="41">
-        <v>385000</v>
-      </c>
-      <c r="O6" s="40"/>
+        <v>123</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40" t="s">
+        <v>124</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>78</v>
       </c>
@@ -5404,7 +5455,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5419,7 +5470,9 @@
       <c r="B7" s="37">
         <v>44383</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44391</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>71</v>
       </c>
@@ -5433,19 +5486,19 @@
       <c r="H7" s="38"/>
       <c r="I7" s="50"/>
       <c r="J7" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K7" s="60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" s="41">
-        <v>138000</v>
-      </c>
-      <c r="O7" s="40"/>
+        <v>123</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
+        <v>124</v>
+      </c>
       <c r="P7" s="40" t="s">
         <v>78</v>
       </c>
@@ -5457,7 +5510,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5486,7 +5539,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5515,7 +5568,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5544,7 +5597,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5573,7 +5626,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5602,7 +5655,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5633,7 +5686,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5662,7 +5715,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5691,7 +5744,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5720,7 +5773,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6490,7 +6543,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -6951,6 +7004,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6962,13 +7022,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6979,8 +7032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7012,43 +7065,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -7093,58 +7146,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -7169,23 +7222,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7195,7 +7248,9 @@
       <c r="B6" s="37">
         <v>44383</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44391</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>72</v>
       </c>
@@ -7209,17 +7264,17 @@
       <c r="H6" s="38"/>
       <c r="I6" s="50"/>
       <c r="J6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K6" s="60"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="N6" s="41">
-        <v>625000</v>
-      </c>
-      <c r="O6" s="40"/>
+        <v>125</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40" t="s">
+        <v>124</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>78</v>
       </c>
@@ -7227,11 +7282,11 @@
         <v>18</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7262,7 +7317,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7291,7 +7346,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7320,7 +7375,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7349,7 +7404,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7378,7 +7433,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7407,7 +7462,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7438,7 +7493,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7467,7 +7522,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7496,7 +7551,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7525,7 +7580,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8295,7 +8350,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -8756,6 +8811,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8767,13 +8829,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8784,8 +8839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8817,43 +8872,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -8898,58 +8953,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -8974,23 +9029,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9000,7 +9055,9 @@
       <c r="B6" s="37">
         <v>44383</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44391</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>73</v>
       </c>
@@ -9013,17 +9070,17 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="50" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K6" s="60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
@@ -9036,11 +9093,11 @@
         <v>18</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9071,7 +9128,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9100,7 +9157,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9129,7 +9186,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9158,7 +9215,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9187,7 +9244,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9216,7 +9273,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9247,7 +9304,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9276,7 +9333,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9305,7 +9362,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9334,7 +9391,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10565,6 +10622,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10576,13 +10640,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10593,8 +10650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10626,43 +10683,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="52"/>
@@ -10707,58 +10764,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -10783,23 +10840,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="71" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10809,7 +10866,9 @@
       <c r="B6" s="37">
         <v>44383</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44391</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>74</v>
       </c>
@@ -10823,19 +10882,21 @@
       <c r="H6" s="38"/>
       <c r="I6" s="50"/>
       <c r="J6" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K6" s="60"/>
       <c r="L6" s="40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N6" s="41">
         <v>50000</v>
       </c>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>78</v>
       </c>
@@ -10843,11 +10904,11 @@
         <v>83</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10862,7 +10923,9 @@
       <c r="B7" s="37">
         <v>44383</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44391</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>74</v>
       </c>
@@ -10875,20 +10938,22 @@
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="50" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K7" s="60"/>
       <c r="L7" s="40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="P7" s="40" t="s">
         <v>78</v>
       </c>
@@ -10900,7 +10965,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10929,7 +10994,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10958,7 +11023,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10987,7 +11052,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11016,7 +11081,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11045,7 +11110,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11076,7 +11141,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11105,7 +11170,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11134,7 +11199,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11163,7 +11228,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12394,6 +12459,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12405,13 +12477,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12455,43 +12520,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -12536,58 +12601,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -12612,23 +12677,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12654,7 +12719,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12685,7 +12750,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12714,7 +12779,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12743,7 +12808,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12772,7 +12837,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12801,7 +12866,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12830,7 +12895,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -12861,7 +12926,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12890,7 +12955,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12919,7 +12984,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12948,7 +13013,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14179,6 +14244,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14190,13 +14262,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
